--- a/exports/main_plus_our/grafo.xlsx
+++ b/exports/main_plus_our/grafo.xlsx
@@ -456,12 +456,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -474,12 +474,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -510,7 +510,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -528,16 +528,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -546,12 +546,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -564,16 +564,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -582,16 +582,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -600,12 +600,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -618,16 +618,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ecosystem</t>
+          <t>ecosystem</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -636,16 +636,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fossil Fuels</t>
+          <t>fossil fuels</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -654,16 +654,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Energy Consumption</t>
+          <t>energy consumption</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -672,12 +672,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Normatives</t>
+          <t>normatives</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -690,16 +690,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Deforestation</t>
+          <t>deforestation</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -708,12 +708,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Flooding</t>
+          <t>flooding</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -726,12 +726,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>tesla</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -744,12 +744,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Green Policies</t>
+          <t>green policies</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -762,16 +762,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -780,16 +780,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Energy Transition</t>
+          <t>green transition</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Electric Vehicles</t>
+          <t>electric vehicles</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -798,16 +798,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -816,12 +816,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -834,7 +834,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -852,12 +852,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -870,12 +870,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -888,16 +888,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -906,12 +906,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -924,12 +924,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -942,12 +942,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ecosystem</t>
+          <t>ecosystem</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -960,16 +960,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fossil Fuels</t>
+          <t>fossil fuels</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -978,12 +978,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Energy Consumption</t>
+          <t>energy consumption</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -996,12 +996,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Normatives</t>
+          <t>normatives</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Deforestation</t>
+          <t>deforestation</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Flooding</t>
+          <t>flooding</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>tesla</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Green Policies</t>
+          <t>green policies</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Greenhouse Effect</t>
+          <t>greenhouse effect</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Electric Vehicles</t>
+          <t>electric vehicles</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1122,16 +1122,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1158,16 +1158,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -1176,16 +1176,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1212,12 +1212,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1230,12 +1230,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1248,16 +1248,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ecosystem</t>
+          <t>ecosystem</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -1266,16 +1266,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Fossil Fuels</t>
+          <t>fossil fuels</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Energy Consumption</t>
+          <t>energy consumption</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1302,12 +1302,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Normatives</t>
+          <t>normatives</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1320,16 +1320,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Deforestation</t>
+          <t>deforestation</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
@@ -1338,12 +1338,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Flooding</t>
+          <t>flooding</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1356,12 +1356,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>tesla</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1374,12 +1374,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Green Policies</t>
+          <t>green policies</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1392,16 +1392,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Biodiversity</t>
+          <t>loss of biodiversity</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Electric Vehicles</t>
+          <t>electric vehicles</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1446,16 +1446,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1482,16 +1482,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -1500,12 +1500,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1518,16 +1518,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -1536,16 +1536,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ecosystem</t>
+          <t>ecosystem</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -1554,12 +1554,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Fossil Fuels</t>
+          <t>fossil fuels</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Energy Consumption</t>
+          <t>energy consumption</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1590,12 +1590,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normatives</t>
+          <t>normatives</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1608,16 +1608,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Deforestation</t>
+          <t>deforestation</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -1626,16 +1626,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Flooding</t>
+          <t>flooding</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>tesla</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1662,12 +1662,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Green Policies</t>
+          <t>green policies</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1680,16 +1680,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71">
@@ -1698,12 +1698,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Extreme weather events</t>
+          <t>extreme weather events</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Electric Vehicles</t>
+          <t>electric vehicles</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -1721,11 +1721,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -1757,11 +1757,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Ecosystem</t>
+          <t>ecosystem</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Fossil Fuels</t>
+          <t>fossil fuels</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Energy Consumption</t>
+          <t>energy consumption</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normatives</t>
+          <t>normatives</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -1883,11 +1883,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Deforestation</t>
+          <t>deforestation</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Flooding</t>
+          <t>flooding</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>tesla</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Green Policies</t>
+          <t>green policies</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Electric Vehicles</t>
+          <t>electric vehicles</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -1986,16 +1986,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
@@ -2004,16 +2004,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -2040,12 +2040,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2058,16 +2058,16 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Ecosystem</t>
+          <t>ecosystem</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -2076,16 +2076,16 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Fossil Fuels</t>
+          <t>fossil fuels</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
@@ -2094,16 +2094,16 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Energy Consumption</t>
+          <t>energy consumption</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94">
@@ -2112,12 +2112,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Normatives</t>
+          <t>normatives</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -2130,16 +2130,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Deforestation</t>
+          <t>deforestation</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Flooding</t>
+          <t>flooding</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -2166,12 +2166,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>tesla</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -2184,12 +2184,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Green Policies</t>
+          <t>green policies</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -2202,16 +2202,16 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100">
@@ -2220,12 +2220,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Emissions</t>
+          <t>emissions</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Electric Vehicles</t>
+          <t>electric vehicles</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -2238,16 +2238,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2274,12 +2274,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -2292,12 +2292,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Ecosystem</t>
+          <t>ecosystem</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2310,16 +2310,16 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Fossil Fuels</t>
+          <t>fossil fuels</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
@@ -2328,12 +2328,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Energy Consumption</t>
+          <t>energy consumption</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -2346,12 +2346,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normatives</t>
+          <t>normatives</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -2364,16 +2364,16 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Deforestation</t>
+          <t>deforestation</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Flooding</t>
+          <t>flooding</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -2400,12 +2400,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>tesla</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Green Policies</t>
+          <t>green policies</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -2436,16 +2436,16 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
@@ -2454,12 +2454,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Global Warming</t>
+          <t>global warming</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Electric Vehicles</t>
+          <t>electric vehicles</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -2472,16 +2472,16 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -2490,12 +2490,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -2508,16 +2508,16 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Ecosystem</t>
+          <t>ecosystem</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
@@ -2526,16 +2526,16 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Fossil Fuels</t>
+          <t>fossil fuels</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -2544,12 +2544,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Energy Consumption</t>
+          <t>energy consumption</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -2562,12 +2562,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Normatives</t>
+          <t>normatives</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -2580,16 +2580,16 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Deforestation</t>
+          <t>deforestation</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121">
@@ -2598,16 +2598,16 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Flooding</t>
+          <t>flooding</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122">
@@ -2616,12 +2616,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>tesla</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Green Policies</t>
+          <t>green policies</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -2652,16 +2652,16 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125">
@@ -2670,12 +2670,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Glaciers</t>
+          <t>melting glaciers</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Electric Vehicles</t>
+          <t>electric vehicles</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -2688,12 +2688,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -2706,12 +2706,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Ecosystem</t>
+          <t>ecosystem</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -2724,16 +2724,16 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Fossil Fuels</t>
+          <t>fossil fuels</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129">
@@ -2742,12 +2742,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Energy Consumption</t>
+          <t>energy consumption</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -2760,12 +2760,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Normatives</t>
+          <t>normatives</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -2778,16 +2778,16 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Deforestation</t>
+          <t>deforestation</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -2796,12 +2796,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Flooding</t>
+          <t>flooding</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -2814,12 +2814,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>tesla</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -2832,12 +2832,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Green Policies</t>
+          <t>green policies</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -2850,12 +2850,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Renewable Energy</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Electric Vehicles</t>
+          <t>electric vehicles</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -2886,12 +2886,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Ecosystem</t>
+          <t>ecosystem</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -2904,12 +2904,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Fossil Fuels</t>
+          <t>fossil fuels</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -2922,16 +2922,16 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Energy Consumption</t>
+          <t>energy consumption</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -2940,12 +2940,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Normatives</t>
+          <t>normatives</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -2958,12 +2958,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Deforestation</t>
+          <t>deforestation</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -2976,12 +2976,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Flooding</t>
+          <t>flooding</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -2994,12 +2994,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>tesla</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -3012,16 +3012,16 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Green Policies</t>
+          <t>green policies</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -3030,12 +3030,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -3048,12 +3048,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Fake News</t>
+          <t>misinformation</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Electric Vehicles</t>
+          <t>electric vehicles</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -3066,16 +3066,16 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ecosystem</t>
+          <t>ecosystem</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Fossil Fuels</t>
+          <t>fossil fuels</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -3084,12 +3084,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ecosystem</t>
+          <t>ecosystem</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Energy Consumption</t>
+          <t>energy consumption</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -3102,12 +3102,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Ecosystem</t>
+          <t>ecosystem</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normatives</t>
+          <t>normatives</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -3120,16 +3120,16 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Ecosystem</t>
+          <t>ecosystem</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Deforestation</t>
+          <t>deforestation</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151">
@@ -3138,12 +3138,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Ecosystem</t>
+          <t>ecosystem</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Flooding</t>
+          <t>flooding</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -3156,12 +3156,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Ecosystem</t>
+          <t>ecosystem</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>tesla</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -3174,12 +3174,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Ecosystem</t>
+          <t>ecosystem</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Green Policies</t>
+          <t>green policies</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -3192,16 +3192,16 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Ecosystem</t>
+          <t>ecosystem</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155">
@@ -3210,12 +3210,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Ecosystem</t>
+          <t>ecosystem</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Electric Vehicles</t>
+          <t>electric vehicles</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -3228,16 +3228,16 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Fossil Fuels</t>
+          <t>fossil fuels</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Energy Consumption</t>
+          <t>energy consumption</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157">
@@ -3246,12 +3246,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Fossil Fuels</t>
+          <t>fossil fuels</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Normatives</t>
+          <t>normatives</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -3264,16 +3264,16 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Fossil Fuels</t>
+          <t>fossil fuels</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Deforestation</t>
+          <t>deforestation</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -3282,12 +3282,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Fossil Fuels</t>
+          <t>fossil fuels</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Flooding</t>
+          <t>flooding</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -3300,12 +3300,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Fossil Fuels</t>
+          <t>fossil fuels</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>tesla</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -3318,12 +3318,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Fossil Fuels</t>
+          <t>fossil fuels</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Green Policies</t>
+          <t>green policies</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -3336,16 +3336,16 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Fossil Fuels</t>
+          <t>fossil fuels</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
@@ -3354,12 +3354,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Fossil Fuels</t>
+          <t>fossil fuels</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Electric Vehicles</t>
+          <t>electric vehicles</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -3372,12 +3372,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Energy Consumption</t>
+          <t>energy consumption</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normatives</t>
+          <t>normatives</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -3390,12 +3390,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Energy Consumption</t>
+          <t>energy consumption</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Deforestation</t>
+          <t>deforestation</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -3408,12 +3408,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Energy Consumption</t>
+          <t>energy consumption</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Flooding</t>
+          <t>flooding</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -3426,12 +3426,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Energy Consumption</t>
+          <t>energy consumption</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>tesla</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -3444,12 +3444,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Energy Consumption</t>
+          <t>energy consumption</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Green Policies</t>
+          <t>green policies</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -3462,16 +3462,16 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Energy Consumption</t>
+          <t>energy consumption</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170">
@@ -3480,12 +3480,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Energy Consumption</t>
+          <t>energy consumption</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Electric Vehicles</t>
+          <t>electric vehicles</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -3498,12 +3498,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Normatives</t>
+          <t>normatives</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Deforestation</t>
+          <t>deforestation</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -3516,12 +3516,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Normatives</t>
+          <t>normatives</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Flooding</t>
+          <t>flooding</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -3534,12 +3534,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Normatives</t>
+          <t>normatives</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>tesla</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -3552,12 +3552,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Normatives</t>
+          <t>normatives</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Green Policies</t>
+          <t>green policies</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -3570,12 +3570,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Normatives</t>
+          <t>normatives</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -3588,12 +3588,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Normatives</t>
+          <t>normatives</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Electric Vehicles</t>
+          <t>electric vehicles</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -3606,12 +3606,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Deforestation</t>
+          <t>deforestation</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Flooding</t>
+          <t>flooding</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -3624,12 +3624,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Deforestation</t>
+          <t>deforestation</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>tesla</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -3642,12 +3642,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Deforestation</t>
+          <t>deforestation</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Green Policies</t>
+          <t>green policies</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -3660,16 +3660,16 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Deforestation</t>
+          <t>deforestation</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -3678,12 +3678,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Deforestation</t>
+          <t>deforestation</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Electric Vehicles</t>
+          <t>electric vehicles</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -3696,12 +3696,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Flooding</t>
+          <t>flooding</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>tesla</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -3714,12 +3714,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Flooding</t>
+          <t>flooding</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Green Policies</t>
+          <t>green policies</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -3732,16 +3732,16 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Flooding</t>
+          <t>flooding</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185">
@@ -3750,12 +3750,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Flooding</t>
+          <t>flooding</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Electric Vehicles</t>
+          <t>electric vehicles</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -3768,12 +3768,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>tesla</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Green Policies</t>
+          <t>green policies</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -3786,12 +3786,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>tesla</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -3804,12 +3804,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>tesla</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Electric Vehicles</t>
+          <t>electric vehicles</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -3822,16 +3822,16 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Green Policies</t>
+          <t>green policies</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190">
@@ -3840,12 +3840,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Green Policies</t>
+          <t>green policies</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Electric Vehicles</t>
+          <t>electric vehicles</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -3858,12 +3858,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Electric Vehicles</t>
+          <t>electric vehicles</t>
         </is>
       </c>
       <c r="D191" t="n">
